--- a/data-raw/excel/modele_plan.xlsx
+++ b/data-raw/excel/modele_plan.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Nom_fichier</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Champ</t>
   </si>
   <si>
-    <t>Avec_note</t>
-  </si>
-  <si>
     <t>resultat_1</t>
   </si>
   <si>
@@ -65,9 +63,6 @@
     <t>Investissements selon les années</t>
   </si>
   <si>
-    <t>Non</t>
-  </si>
-  <si>
     <t>Agreste</t>
   </si>
   <si>
@@ -77,12 +72,6 @@
     <t>Montant des dépenses selon le type et l'année</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Les montants sont exprimés en milliers d'euros</t>
-  </si>
-  <si>
     <t>Eurostat</t>
   </si>
   <si>
@@ -101,20 +90,74 @@
     <t>Dépenses 2</t>
   </si>
   <si>
-    <t>texte, decimal, decimal, decimal, texte, texte</t>
-  </si>
-  <si>
     <t>texte, decimal, decimal, decimal, decimal, decimal</t>
   </si>
   <si>
     <t>texte, decimal, decimal, decimal</t>
+  </si>
+  <si>
+    <t>Titre_document</t>
+  </si>
+  <si>
+    <t>Exemple 2022</t>
+  </si>
+  <si>
+    <t>Taille_colonnes</t>
+  </si>
+  <si>
+    <t>25, 9, 9, 19, 8, 19</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Lignes_section</t>
+  </si>
+  <si>
+    <t>Lignes_sous_total</t>
+  </si>
+  <si>
+    <t>Lignes_total</t>
+  </si>
+  <si>
+    <t>Lignes_precision</t>
+  </si>
+  <si>
+    <t>2, 3, 5, 6</t>
+  </si>
+  <si>
+    <t>Lignes_titre</t>
+  </si>
+  <si>
+    <t>Lignes_sous_titre</t>
+  </si>
+  <si>
+    <t>Cellules_a_fusionner</t>
+  </si>
+  <si>
+    <t>1, 4</t>
+  </si>
+  <si>
+    <t>Type_colonnes</t>
+  </si>
+  <si>
+    <t>Entre 2005 et 2019, les investisements consacrés aux études ont été divisés par 2</t>
+  </si>
+  <si>
+    <t>Entre 2013 et 2019, les dépenses pour  le management environnemental ont augmenté de près de 50%</t>
+  </si>
+  <si>
+    <t>milliers d'€</t>
+  </si>
+  <si>
+    <t>9, 16, 16, 16, 16, 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +169,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,6 +218,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,135 +515,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="36.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="4">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data-raw/excel/modele_plan.xlsx
+++ b/data-raw/excel/modele_plan.xlsx
@@ -14,8 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Nom_fichier</t>
   </si>
@@ -105,9 +104,6 @@
     <t>Taille_colonnes</t>
   </si>
   <si>
-    <t>25, 9, 9, 19, 8, 19</t>
-  </si>
-  <si>
     <t>auto</t>
   </si>
   <si>
@@ -120,9 +116,6 @@
     <t>Lignes_total</t>
   </si>
   <si>
-    <t>Lignes_precision</t>
-  </si>
-  <si>
     <t>2, 3, 5, 6</t>
   </si>
   <si>
@@ -150,7 +143,112 @@
     <t>milliers d'€</t>
   </si>
   <si>
-    <t>9, 16, 16, 16, 16, 16</t>
+    <t>24, 7, 7, 19, 7, 19</t>
+  </si>
+  <si>
+    <t>8, 15, 15, 15, 15, 15</t>
+  </si>
+  <si>
+    <t>lait_vache</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>Livraisons_bio_REGN</t>
+  </si>
+  <si>
+    <t>Livraisons de lait de vache bio en 2020</t>
+  </si>
+  <si>
+    <t>texte, texte, numerique, numerique, decimal, numerique, numerique, decimal</t>
+  </si>
+  <si>
+    <t>s = secret statistique</t>
+  </si>
+  <si>
+    <t>Agreste - Enquête annuelle laitière</t>
+  </si>
+  <si>
+    <t>France entière</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>(1:2;1:2), (1;3:5), (1;6:8), (15;1:2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> , , milliers de litres, milliers de litres, %, milliers de litres, milliers de litres, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 21, 10, 11.71, 7.43, 8.57, 8.86, 11.29   </t>
+  </si>
+  <si>
+    <t>Lignes_precision_1</t>
+  </si>
+  <si>
+    <t>Lignes_precision_2</t>
+  </si>
+  <si>
+    <t>Lignes_precision_3</t>
+  </si>
+  <si>
+    <t>Lignes_precision_4</t>
+  </si>
+  <si>
+    <t>scieries2020</t>
+  </si>
+  <si>
+    <t>Sciages</t>
+  </si>
+  <si>
+    <t>Baisse de la production de sciages de 1,5 %</t>
+  </si>
+  <si>
+    <t>en 2020, la production de sciages de chêne atteint 0,58 Mm³, soit 7,1 % de la production totale. Elle progresse de 0,5 % par rapport à 2019 et baisse de 0,2 % en moyenne par an sur la période 2014-2019.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agreste - Enquête Exploitations forestières et scieries</t>
+  </si>
+  <si>
+    <t>France métropolitaine</t>
+  </si>
+  <si>
+    <t>2, 16</t>
+  </si>
+  <si>
+    <t>4, 9, 17, 18</t>
+  </si>
+  <si>
+    <t>5, 6, 7, 8, 10, 11, 12, 13, 14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>millier de m³ sciage,  , %, %</t>
+    </r>
+  </si>
+  <si>
+    <t>texte, numerique, decimal, decimal, decimal</t>
+  </si>
+  <si>
+    <t>44, 8, 6.71, 12, 12</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 9, 15, 16, 17, 18</t>
+  </si>
+  <si>
+    <t>3, 15</t>
   </si>
 </sst>
 </file>
@@ -208,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,18 +318,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,35 +622,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="36.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="25.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="70.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -560,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>25</v>
@@ -575,193 +684,494 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6">
+        <v>4</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="S4" s="6">
+        <v>9</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2">
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6">
+        <v>15</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="6">
         <v>1</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="T6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -769,5 +1179,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N6" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data-raw/excel/modele_plan.xlsx
+++ b/data-raw/excel/modele_plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Nom_fichier</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Lignes_titre</t>
-  </si>
-  <si>
-    <t>Lignes_sous_titre</t>
   </si>
   <si>
     <t>Cellules_a_fusionner</t>
@@ -622,13 +619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,16 +640,15 @@
     <col min="8" max="8" width="38.7109375" customWidth="1"/>
     <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="25.42578125" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="70.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="25.42578125" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="70.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -669,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>25</v>
@@ -687,10 +683,10 @@
         <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>53</v>
@@ -702,22 +698,19 @@
         <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
@@ -737,10 +730,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>12</v>
@@ -758,13 +751,12 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="S2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
@@ -782,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
@@ -800,16 +792,15 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6">
+      <c r="R3" s="6">
         <v>4</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="S3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
@@ -830,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>15</v>
@@ -842,55 +833,54 @@
         <v>1</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="6">
+      <c r="Q4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="6">
         <v>9</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="S4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -898,75 +888,73 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6">
+      <c r="R5" s="6">
         <v>15</v>
       </c>
+      <c r="S5" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="T5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="N6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="Q6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -985,11 +973,10 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="8"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1008,11 +995,10 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="8"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1031,11 +1017,10 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="8"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1054,11 +1039,10 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="6"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="8"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1077,11 +1061,10 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="8"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1100,11 +1083,10 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="8"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1123,11 +1105,10 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="8"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1146,11 +1127,10 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="8"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1169,9 +1149,8 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="6"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1180,7 +1159,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N6" twoDigitTextYear="1"/>
+    <ignoredError sqref="M6" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data-raw/excel/modele_plan.xlsx
+++ b/data-raw/excel/modele_plan.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Nom_fichier</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>1, 2</t>
-  </si>
-  <si>
-    <t>(1:2;1:2), (1;3:5), (1;6:8), (15;1:2)</t>
   </si>
   <si>
     <t xml:space="preserve"> , , milliers de litres, milliers de litres, %, milliers de litres, milliers de litres, %</t>
@@ -246,6 +243,30 @@
   </si>
   <si>
     <t>3, 15</t>
+  </si>
+  <si>
+    <t>Chapitre</t>
+  </si>
+  <si>
+    <t>Sous-chapitre</t>
+  </si>
+  <si>
+    <t>Investissements et dépenses</t>
+  </si>
+  <si>
+    <t>Dépenses</t>
+  </si>
+  <si>
+    <t>Lait</t>
+  </si>
+  <si>
+    <t>Bois</t>
+  </si>
+  <si>
+    <t>(1:2;1:2), (1;3:5), (1;6:8), (17;1:2)</t>
+  </si>
+  <si>
+    <t>/!\ la ligne 1 est la première ligne de titre pour les fusions</t>
   </si>
 </sst>
 </file>
@@ -303,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,6 +359,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,13 +646,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,22 +660,25 @@
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="25.42578125" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="70.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="25.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="70.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -659,59 +689,68 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="W1" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -720,404 +759,443 @@
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="6">
+      <c r="M2" s="6">
         <v>1</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="6">
+      <c r="M3" s="6">
         <v>1</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="6">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6">
         <v>4</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6">
+      <c r="M4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="6">
+      <c r="T4" s="6">
         <v>9</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="U4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="6">
-        <v>15</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="6" t="s">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
+        <v>16</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="V5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" s="14"/>
+    </row>
+    <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="H6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="T6" s="6">
         <v>1</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" s="6" t="s">
+      <c r="U6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="R6" s="6">
-        <v>1</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="8"/>
+      <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="8"/>
+      <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="8"/>
+      <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="8"/>
+      <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="8"/>
+      <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="8"/>
+      <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -1127,19 +1205,21 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="8"/>
+      <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1149,17 +1229,20 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="8"/>
+      <c r="S15" s="6"/>
       <c r="T15" s="6"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A15"/>
+    <mergeCell ref="W1:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M6" twoDigitTextYear="1"/>
+    <ignoredError sqref="O6" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data-raw/excel/modele_plan.xlsx
+++ b/data-raw/excel/modele_plan.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>Nom_fichier</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>lait_vache</t>
-  </si>
-  <si>
-    <t>xlsx</t>
   </si>
   <si>
     <t>Livraisons_bio_REGN</t>
@@ -267,6 +264,12 @@
   </si>
   <si>
     <t>/!\ la ligne 1 est la première ligne de titre pour les fusions</t>
+  </si>
+  <si>
+    <t>Lignes_italique</t>
+  </si>
+  <si>
+    <t>xlsx</t>
   </si>
 </sst>
 </file>
@@ -646,13 +649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,12 +676,13 @@
     <col min="15" max="18" width="25.42578125" customWidth="1"/>
     <col min="19" max="19" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="70.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="70.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -689,10 +693,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
@@ -722,16 +726,16 @@
         <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>28</v>
@@ -740,16 +744,19 @@
         <v>29</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="X1" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
@@ -760,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>18</v>
@@ -796,13 +803,14 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="6"/>
+      <c r="V2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="14"/>
-    </row>
-    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="W2" s="7"/>
+      <c r="X2" s="14"/>
+    </row>
+    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
@@ -812,7 +820,7 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>19</v>
@@ -845,13 +853,14 @@
       <c r="T3" s="6">
         <v>4</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="14"/>
-    </row>
-    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="W3" s="7"/>
+      <c r="X3" s="14"/>
+    </row>
+    <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
@@ -898,47 +907,48 @@
       <c r="T4" s="6">
         <v>9</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="6"/>
+      <c r="V4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="14"/>
-    </row>
-    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="W4" s="6"/>
+      <c r="X4" s="14"/>
+    </row>
+    <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -949,76 +959,78 @@
       <c r="T5" s="6">
         <v>16</v>
       </c>
-      <c r="U5" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="U5" s="6"/>
       <c r="V5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="W5" s="14"/>
-    </row>
-    <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="14"/>
+    </row>
+    <row r="6" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="M6" s="6">
         <v>1</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="S6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T6" s="6">
         <v>1</v>
       </c>
-      <c r="U6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="14"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U6" s="6"/>
+      <c r="V6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" s="6"/>
+      <c r="X6" s="14"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1039,10 +1051,11 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="6"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U7" s="6"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1063,10 +1076,11 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="6"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U8" s="6"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1087,10 +1101,11 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="6"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U9" s="6"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1111,10 +1126,11 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="6"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U10" s="6"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1135,10 +1151,11 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="6"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U11" s="6"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1159,10 +1176,11 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="6"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U12" s="6"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1183,10 +1201,11 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="6"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U13" s="6"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1207,10 +1226,11 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U14" s="6"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1231,13 +1251,14 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="W1:W6"/>
+    <mergeCell ref="X1:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
